--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\cvd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\PSM 2\Covid-19-Patient-Health-Analytics-master\cvd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B6916C8-19CB-4530-8D49-439BD7C3A9D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C98FF1-D6B1-468A-992A-045283E34AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF4A2ADC-DB0D-433C-A1D9-B3EB62F5FC5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="3990" xr2:uid="{BF4A2ADC-DB0D-433C-A1D9-B3EB62F5FC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -708,12 +702,6 @@
     <t>symptom1</t>
   </si>
   <si>
-    <t>from_wuhan</t>
-  </si>
-  <si>
-    <t>vis_wuhan</t>
-  </si>
-  <si>
     <t>hosp_vis</t>
   </si>
   <si>
@@ -733,6 +721,12 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>vis_cluster</t>
+  </si>
+  <si>
+    <t>from_cluster</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1082,7 @@
   <dimension ref="A1:O864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,31 +1093,31 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" t="s">
         <v>232</v>
-      </c>
-      <c r="B1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" t="s">
-        <v>224</v>
       </c>
       <c r="J1" t="s">
         <v>223</v>
